--- a/data/misused_bar_graph_figures/nature/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nature/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nature/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60CBC21-3F4E-C942-9BFD-15DD4262D798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8AC9F-FC28-4A46-84E4-909DD97ABBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="9740" windowWidth="37620" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5045" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5045" uniqueCount="784">
   <si>
     <t>Fig Index</t>
   </si>
@@ -2327,9 +2327,6 @@
     <t>Cell percentage</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -2351,9 +2348,6 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>Protein amount</t>
-  </si>
-  <si>
     <t>Titer</t>
   </si>
   <si>
@@ -2384,22 +2378,10 @@
     <t>Strength (g)</t>
   </si>
   <si>
-    <t>Force</t>
-  </si>
-  <si>
-    <t>Osmolality</t>
-  </si>
-  <si>
     <t>Colon length</t>
   </si>
   <si>
     <t>Mean gray value (a.u.)</t>
-  </si>
-  <si>
-    <t>Gray value</t>
-  </si>
-  <si>
-    <t>Rate</t>
   </si>
   <si>
     <t>Radiant flux</t>
@@ -2814,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F297" zoomScale="241" workbookViewId="0">
-      <selection activeCell="J302" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="241" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3027,10 +3009,10 @@
         <v>755</v>
       </c>
       <c r="I6" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="J6" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="K6" t="s">
         <v>753</v>
@@ -3062,10 +3044,10 @@
         <v>755</v>
       </c>
       <c r="I7" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="J7" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="K7" t="s">
         <v>753</v>
@@ -3272,10 +3254,10 @@
         <v>755</v>
       </c>
       <c r="I13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K13" t="s">
         <v>753</v>
@@ -3622,10 +3604,10 @@
         <v>755</v>
       </c>
       <c r="I23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K23" t="s">
         <v>753</v>
@@ -3657,10 +3639,10 @@
         <v>755</v>
       </c>
       <c r="I24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K24" t="s">
         <v>753</v>
@@ -3692,10 +3674,10 @@
         <v>755</v>
       </c>
       <c r="I25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K25" t="s">
         <v>753</v>
@@ -3727,10 +3709,10 @@
         <v>755</v>
       </c>
       <c r="I26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K26" t="s">
         <v>753</v>
@@ -3765,7 +3747,7 @@
         <v>751</v>
       </c>
       <c r="J27" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="K27" t="s">
         <v>753</v>
@@ -3791,16 +3773,16 @@
         <v>632</v>
       </c>
       <c r="G28" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="H28" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="I28" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J28" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="K28" t="s">
         <v>753</v>
@@ -3832,10 +3814,10 @@
         <v>755</v>
       </c>
       <c r="I29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K29" t="s">
         <v>753</v>
@@ -3867,10 +3849,10 @@
         <v>755</v>
       </c>
       <c r="I30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K30" t="s">
         <v>753</v>
@@ -3902,10 +3884,10 @@
         <v>755</v>
       </c>
       <c r="I31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K31" t="s">
         <v>753</v>
@@ -3937,10 +3919,10 @@
         <v>755</v>
       </c>
       <c r="I32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K32" t="s">
         <v>753</v>
@@ -3972,10 +3954,10 @@
         <v>755</v>
       </c>
       <c r="I33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K33" t="s">
         <v>753</v>
@@ -4007,10 +3989,10 @@
         <v>755</v>
       </c>
       <c r="I34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K34" t="s">
         <v>753</v>
@@ -4042,10 +4024,10 @@
         <v>755</v>
       </c>
       <c r="I35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K35" t="s">
         <v>753</v>
@@ -4077,10 +4059,10 @@
         <v>755</v>
       </c>
       <c r="I36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K36" t="s">
         <v>753</v>
@@ -4427,7 +4409,7 @@
         <v>755</v>
       </c>
       <c r="I46" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J46" t="s">
         <v>762</v>
@@ -4462,7 +4444,7 @@
         <v>755</v>
       </c>
       <c r="I47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J47" t="s">
         <v>762</v>
@@ -4497,7 +4479,7 @@
         <v>755</v>
       </c>
       <c r="I48" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J48" t="s">
         <v>762</v>
@@ -4532,7 +4514,7 @@
         <v>755</v>
       </c>
       <c r="I49" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J49" t="s">
         <v>762</v>
@@ -4567,7 +4549,7 @@
         <v>755</v>
       </c>
       <c r="I50" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J50" t="s">
         <v>762</v>
@@ -4602,7 +4584,7 @@
         <v>755</v>
       </c>
       <c r="I51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J51" t="s">
         <v>762</v>
@@ -4637,7 +4619,7 @@
         <v>755</v>
       </c>
       <c r="I52" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J52" t="s">
         <v>762</v>
@@ -4672,7 +4654,7 @@
         <v>755</v>
       </c>
       <c r="I53" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J53" t="s">
         <v>762</v>
@@ -4707,7 +4689,7 @@
         <v>755</v>
       </c>
       <c r="I54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J54" t="s">
         <v>762</v>
@@ -4742,7 +4724,7 @@
         <v>755</v>
       </c>
       <c r="I55" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J55" t="s">
         <v>762</v>
@@ -4777,7 +4759,7 @@
         <v>755</v>
       </c>
       <c r="I56" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J56" t="s">
         <v>762</v>
@@ -4812,7 +4794,7 @@
         <v>755</v>
       </c>
       <c r="I57" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J57" t="s">
         <v>762</v>
@@ -4847,7 +4829,7 @@
         <v>755</v>
       </c>
       <c r="I58" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J58" t="s">
         <v>762</v>
@@ -4882,7 +4864,7 @@
         <v>755</v>
       </c>
       <c r="I59" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J59" t="s">
         <v>762</v>
@@ -4917,7 +4899,7 @@
         <v>755</v>
       </c>
       <c r="I60" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J60" t="s">
         <v>762</v>
@@ -4952,7 +4934,7 @@
         <v>755</v>
       </c>
       <c r="I61" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J61" t="s">
         <v>762</v>
@@ -4987,7 +4969,7 @@
         <v>755</v>
       </c>
       <c r="I62" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J62" t="s">
         <v>762</v>
@@ -5022,7 +5004,7 @@
         <v>755</v>
       </c>
       <c r="I63" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J63" t="s">
         <v>762</v>
@@ -5057,7 +5039,7 @@
         <v>755</v>
       </c>
       <c r="I64" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J64" t="s">
         <v>762</v>
@@ -5092,7 +5074,7 @@
         <v>755</v>
       </c>
       <c r="I65" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J65" t="s">
         <v>762</v>
@@ -5127,7 +5109,7 @@
         <v>755</v>
       </c>
       <c r="I66" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J66" t="s">
         <v>762</v>
@@ -5162,7 +5144,7 @@
         <v>755</v>
       </c>
       <c r="I67" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J67" t="s">
         <v>762</v>
@@ -5197,7 +5179,7 @@
         <v>755</v>
       </c>
       <c r="I68" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J68" t="s">
         <v>762</v>
@@ -5232,7 +5214,7 @@
         <v>755</v>
       </c>
       <c r="I69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J69" t="s">
         <v>762</v>
@@ -5267,7 +5249,7 @@
         <v>755</v>
       </c>
       <c r="I70" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J70" t="s">
         <v>762</v>
@@ -5302,7 +5284,7 @@
         <v>755</v>
       </c>
       <c r="I71" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J71" t="s">
         <v>762</v>
@@ -5337,7 +5319,7 @@
         <v>755</v>
       </c>
       <c r="I72" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J72" t="s">
         <v>762</v>
@@ -5372,7 +5354,7 @@
         <v>755</v>
       </c>
       <c r="I73" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J73" t="s">
         <v>762</v>
@@ -5407,7 +5389,7 @@
         <v>755</v>
       </c>
       <c r="I74" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J74" t="s">
         <v>762</v>
@@ -5442,7 +5424,7 @@
         <v>755</v>
       </c>
       <c r="I75" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J75" t="s">
         <v>762</v>
@@ -5477,7 +5459,7 @@
         <v>755</v>
       </c>
       <c r="I76" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J76" t="s">
         <v>762</v>
@@ -5512,7 +5494,7 @@
         <v>755</v>
       </c>
       <c r="I77" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J77" t="s">
         <v>762</v>
@@ -5547,7 +5529,7 @@
         <v>755</v>
       </c>
       <c r="I78" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J78" t="s">
         <v>762</v>
@@ -5582,7 +5564,7 @@
         <v>755</v>
       </c>
       <c r="I79" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J79" t="s">
         <v>762</v>
@@ -5617,7 +5599,7 @@
         <v>755</v>
       </c>
       <c r="I80" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J80" t="s">
         <v>762</v>
@@ -5652,7 +5634,7 @@
         <v>755</v>
       </c>
       <c r="I81" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J81" t="s">
         <v>762</v>
@@ -5687,7 +5669,7 @@
         <v>755</v>
       </c>
       <c r="I82" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J82" t="s">
         <v>762</v>
@@ -5722,7 +5704,7 @@
         <v>755</v>
       </c>
       <c r="I83" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J83" t="s">
         <v>762</v>
@@ -5757,7 +5739,7 @@
         <v>755</v>
       </c>
       <c r="I84" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J84" t="s">
         <v>762</v>
@@ -5792,7 +5774,7 @@
         <v>755</v>
       </c>
       <c r="I85" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J85" t="s">
         <v>762</v>
@@ -5827,7 +5809,7 @@
         <v>755</v>
       </c>
       <c r="I86" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J86" t="s">
         <v>762</v>
@@ -5862,7 +5844,7 @@
         <v>755</v>
       </c>
       <c r="I87" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J87" t="s">
         <v>762</v>
@@ -5897,7 +5879,7 @@
         <v>755</v>
       </c>
       <c r="I88" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J88" t="s">
         <v>762</v>
@@ -5932,7 +5914,7 @@
         <v>755</v>
       </c>
       <c r="I89" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J89" t="s">
         <v>762</v>
@@ -5967,7 +5949,7 @@
         <v>755</v>
       </c>
       <c r="I90" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J90" t="s">
         <v>762</v>
@@ -6002,7 +5984,7 @@
         <v>755</v>
       </c>
       <c r="I91" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J91" t="s">
         <v>762</v>
@@ -6037,7 +6019,7 @@
         <v>755</v>
       </c>
       <c r="I92" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J92" t="s">
         <v>762</v>
@@ -6072,7 +6054,7 @@
         <v>755</v>
       </c>
       <c r="I93" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J93" t="s">
         <v>762</v>
@@ -6107,7 +6089,7 @@
         <v>755</v>
       </c>
       <c r="I94" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J94" t="s">
         <v>762</v>
@@ -6142,7 +6124,7 @@
         <v>755</v>
       </c>
       <c r="I95" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J95" t="s">
         <v>762</v>
@@ -6177,7 +6159,7 @@
         <v>755</v>
       </c>
       <c r="I96" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J96" t="s">
         <v>762</v>
@@ -6212,7 +6194,7 @@
         <v>755</v>
       </c>
       <c r="I97" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J97" t="s">
         <v>762</v>
@@ -6247,7 +6229,7 @@
         <v>755</v>
       </c>
       <c r="I98" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J98" t="s">
         <v>762</v>
@@ -6282,7 +6264,7 @@
         <v>755</v>
       </c>
       <c r="I99" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J99" t="s">
         <v>762</v>
@@ -6317,7 +6299,7 @@
         <v>755</v>
       </c>
       <c r="I100" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J100" t="s">
         <v>762</v>
@@ -6352,7 +6334,7 @@
         <v>755</v>
       </c>
       <c r="I101" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J101" t="s">
         <v>762</v>
@@ -6387,7 +6369,7 @@
         <v>755</v>
       </c>
       <c r="I102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J102" t="s">
         <v>762</v>
@@ -6422,7 +6404,7 @@
         <v>755</v>
       </c>
       <c r="I103" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J103" t="s">
         <v>762</v>
@@ -6457,7 +6439,7 @@
         <v>755</v>
       </c>
       <c r="I104" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J104" t="s">
         <v>762</v>
@@ -6492,7 +6474,7 @@
         <v>755</v>
       </c>
       <c r="I105" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J105" t="s">
         <v>762</v>
@@ -6527,7 +6509,7 @@
         <v>755</v>
       </c>
       <c r="I106" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J106" t="s">
         <v>762</v>
@@ -6597,10 +6579,10 @@
         <v>755</v>
       </c>
       <c r="I108" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J108" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K108" t="s">
         <v>753</v>
@@ -6667,10 +6649,10 @@
         <v>755</v>
       </c>
       <c r="I110" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J110" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K110" t="s">
         <v>753</v>
@@ -6737,10 +6719,10 @@
         <v>755</v>
       </c>
       <c r="I112" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J112" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K112" t="s">
         <v>753</v>
@@ -6772,10 +6754,10 @@
         <v>755</v>
       </c>
       <c r="I113" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J113" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K113" t="s">
         <v>753</v>
@@ -6807,10 +6789,10 @@
         <v>755</v>
       </c>
       <c r="I114" t="s">
+        <v>769</v>
+      </c>
+      <c r="J114" t="s">
         <v>770</v>
-      </c>
-      <c r="J114" t="s">
-        <v>771</v>
       </c>
       <c r="K114" t="s">
         <v>753</v>
@@ -6842,10 +6824,10 @@
         <v>750</v>
       </c>
       <c r="I115" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J115" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K115" t="s">
         <v>753</v>
@@ -6877,10 +6859,10 @@
         <v>750</v>
       </c>
       <c r="I116" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J116" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K116" t="s">
         <v>753</v>
@@ -6912,10 +6894,10 @@
         <v>750</v>
       </c>
       <c r="I117" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J117" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K117" t="s">
         <v>753</v>
@@ -6947,10 +6929,10 @@
         <v>750</v>
       </c>
       <c r="I118" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J118" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K118" t="s">
         <v>753</v>
@@ -6982,10 +6964,10 @@
         <v>755</v>
       </c>
       <c r="I119" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J119" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K119" t="s">
         <v>753</v>
@@ -7017,10 +6999,10 @@
         <v>755</v>
       </c>
       <c r="I120" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J120" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K120" t="s">
         <v>753</v>
@@ -7052,10 +7034,10 @@
         <v>755</v>
       </c>
       <c r="I121" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J121" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K121" t="s">
         <v>753</v>
@@ -7087,10 +7069,10 @@
         <v>755</v>
       </c>
       <c r="I122" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J122" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K122" t="s">
         <v>753</v>
@@ -7367,10 +7349,10 @@
         <v>755</v>
       </c>
       <c r="I130" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J130" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K130" t="s">
         <v>753</v>
@@ -7402,10 +7384,10 @@
         <v>755</v>
       </c>
       <c r="I131" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J131" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K131" t="s">
         <v>753</v>
@@ -7437,10 +7419,10 @@
         <v>755</v>
       </c>
       <c r="I132" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J132" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K132" t="s">
         <v>753</v>
@@ -7472,10 +7454,10 @@
         <v>755</v>
       </c>
       <c r="I133" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J133" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K133" t="s">
         <v>753</v>
@@ -7507,10 +7489,10 @@
         <v>755</v>
       </c>
       <c r="I134" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J134" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K134" t="s">
         <v>753</v>
@@ -7787,10 +7769,10 @@
         <v>755</v>
       </c>
       <c r="I142" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J142" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K142" t="s">
         <v>753</v>
@@ -7892,10 +7874,10 @@
         <v>755</v>
       </c>
       <c r="I145" t="s">
-        <v>648</v>
+        <v>765</v>
       </c>
       <c r="J145" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K145" t="s">
         <v>753</v>
@@ -7927,10 +7909,10 @@
         <v>755</v>
       </c>
       <c r="I146" t="s">
-        <v>648</v>
+        <v>765</v>
       </c>
       <c r="J146" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K146" t="s">
         <v>753</v>
@@ -7997,10 +7979,10 @@
         <v>755</v>
       </c>
       <c r="I148" t="s">
-        <v>648</v>
+        <v>765</v>
       </c>
       <c r="J148" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K148" t="s">
         <v>753</v>
@@ -8032,10 +8014,10 @@
         <v>755</v>
       </c>
       <c r="I149" t="s">
-        <v>648</v>
+        <v>765</v>
       </c>
       <c r="J149" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K149" t="s">
         <v>753</v>
@@ -8102,7 +8084,7 @@
         <v>755</v>
       </c>
       <c r="I151" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="J151" t="s">
         <v>757</v>
@@ -8137,7 +8119,7 @@
         <v>755</v>
       </c>
       <c r="I152" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J152" t="s">
         <v>731</v>
@@ -8172,7 +8154,7 @@
         <v>755</v>
       </c>
       <c r="I153" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J153" t="s">
         <v>731</v>
@@ -8207,7 +8189,7 @@
         <v>755</v>
       </c>
       <c r="I154" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J154" t="s">
         <v>731</v>
@@ -8242,7 +8224,7 @@
         <v>755</v>
       </c>
       <c r="I155" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J155" t="s">
         <v>762</v>
@@ -8277,7 +8259,7 @@
         <v>755</v>
       </c>
       <c r="I156" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J156" t="s">
         <v>757</v>
@@ -8312,7 +8294,7 @@
         <v>755</v>
       </c>
       <c r="I157" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J157" t="s">
         <v>757</v>
@@ -8347,7 +8329,7 @@
         <v>755</v>
       </c>
       <c r="I158" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J158" t="s">
         <v>757</v>
@@ -8382,7 +8364,7 @@
         <v>755</v>
       </c>
       <c r="I159" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J159" t="s">
         <v>757</v>
@@ -8452,7 +8434,7 @@
         <v>755</v>
       </c>
       <c r="I161" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J161" t="s">
         <v>757</v>
@@ -8487,7 +8469,7 @@
         <v>755</v>
       </c>
       <c r="I162" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J162" t="s">
         <v>757</v>
@@ -8522,7 +8504,7 @@
         <v>755</v>
       </c>
       <c r="I163" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J163" t="s">
         <v>762</v>
@@ -8557,7 +8539,7 @@
         <v>755</v>
       </c>
       <c r="I164" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J164" t="s">
         <v>757</v>
@@ -8592,7 +8574,7 @@
         <v>755</v>
       </c>
       <c r="I165" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J165" t="s">
         <v>757</v>
@@ -8802,7 +8784,7 @@
         <v>755</v>
       </c>
       <c r="I171" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J171" t="s">
         <v>731</v>
@@ -8837,7 +8819,7 @@
         <v>755</v>
       </c>
       <c r="I172" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J172" t="s">
         <v>731</v>
@@ -8872,7 +8854,7 @@
         <v>755</v>
       </c>
       <c r="I173" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J173" t="s">
         <v>731</v>
@@ -8907,7 +8889,7 @@
         <v>755</v>
       </c>
       <c r="I174" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J174" t="s">
         <v>731</v>
@@ -8942,7 +8924,7 @@
         <v>755</v>
       </c>
       <c r="I175" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J175" t="s">
         <v>731</v>
@@ -9012,7 +8994,7 @@
         <v>755</v>
       </c>
       <c r="I177" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J177" t="s">
         <v>757</v>
@@ -9222,7 +9204,7 @@
         <v>755</v>
       </c>
       <c r="I183" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J183" t="s">
         <v>757</v>
@@ -9747,7 +9729,7 @@
         <v>755</v>
       </c>
       <c r="I198" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J198" t="s">
         <v>757</v>
@@ -9817,10 +9799,10 @@
         <v>755</v>
       </c>
       <c r="I200" t="s">
+        <v>769</v>
+      </c>
+      <c r="J200" t="s">
         <v>770</v>
-      </c>
-      <c r="J200" t="s">
-        <v>771</v>
       </c>
       <c r="K200">
         <v>10</v>
@@ -9852,10 +9834,10 @@
         <v>755</v>
       </c>
       <c r="I201" t="s">
+        <v>769</v>
+      </c>
+      <c r="J201" t="s">
         <v>770</v>
-      </c>
-      <c r="J201" t="s">
-        <v>771</v>
       </c>
       <c r="K201">
         <v>10</v>
@@ -9922,10 +9904,10 @@
         <v>755</v>
       </c>
       <c r="I203" t="s">
+        <v>769</v>
+      </c>
+      <c r="J203" t="s">
         <v>770</v>
-      </c>
-      <c r="J203" t="s">
-        <v>771</v>
       </c>
       <c r="K203">
         <v>10</v>
@@ -9957,10 +9939,10 @@
         <v>755</v>
       </c>
       <c r="I204" t="s">
+        <v>769</v>
+      </c>
+      <c r="J204" t="s">
         <v>770</v>
-      </c>
-      <c r="J204" t="s">
-        <v>771</v>
       </c>
       <c r="K204">
         <v>10</v>
@@ -9992,10 +9974,10 @@
         <v>755</v>
       </c>
       <c r="I205" t="s">
+        <v>769</v>
+      </c>
+      <c r="J205" t="s">
         <v>770</v>
-      </c>
-      <c r="J205" t="s">
-        <v>771</v>
       </c>
       <c r="K205">
         <v>10</v>
@@ -10027,10 +10009,10 @@
         <v>755</v>
       </c>
       <c r="I206" t="s">
+        <v>769</v>
+      </c>
+      <c r="J206" t="s">
         <v>770</v>
-      </c>
-      <c r="J206" t="s">
-        <v>771</v>
       </c>
       <c r="K206">
         <v>10</v>
@@ -10062,10 +10044,10 @@
         <v>755</v>
       </c>
       <c r="I207" t="s">
+        <v>769</v>
+      </c>
+      <c r="J207" t="s">
         <v>770</v>
-      </c>
-      <c r="J207" t="s">
-        <v>771</v>
       </c>
       <c r="K207">
         <v>10</v>
@@ -10272,7 +10254,7 @@
         <v>755</v>
       </c>
       <c r="I213" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J213" t="s">
         <v>757</v>
@@ -10342,10 +10324,10 @@
         <v>750</v>
       </c>
       <c r="I215" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J215" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="K215" t="s">
         <v>753</v>
@@ -10412,7 +10394,7 @@
         <v>691</v>
       </c>
       <c r="I217" t="s">
-        <v>764</v>
+        <v>691</v>
       </c>
       <c r="J217" t="s">
         <v>691</v>
@@ -10482,7 +10464,7 @@
         <v>755</v>
       </c>
       <c r="I219" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="J219" t="s">
         <v>760</v>
@@ -10517,7 +10499,7 @@
         <v>691</v>
       </c>
       <c r="I220" t="s">
-        <v>764</v>
+        <v>691</v>
       </c>
       <c r="J220" t="s">
         <v>691</v>
@@ -10622,10 +10604,10 @@
         <v>750</v>
       </c>
       <c r="I223" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J223" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K223" t="s">
         <v>753</v>
@@ -10657,10 +10639,10 @@
         <v>750</v>
       </c>
       <c r="I224" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J224" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K224" t="s">
         <v>753</v>
@@ -10692,10 +10674,10 @@
         <v>750</v>
       </c>
       <c r="I225" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J225" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K225" t="s">
         <v>753</v>
@@ -10727,10 +10709,10 @@
         <v>750</v>
       </c>
       <c r="I226" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J226" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K226" t="s">
         <v>753</v>
@@ -10762,10 +10744,10 @@
         <v>750</v>
       </c>
       <c r="I227" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J227" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K227" t="s">
         <v>753</v>
@@ -10797,10 +10779,10 @@
         <v>750</v>
       </c>
       <c r="I228" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J228" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K228" t="s">
         <v>753</v>
@@ -10832,10 +10814,10 @@
         <v>750</v>
       </c>
       <c r="I229" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J229" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K229" t="s">
         <v>753</v>
@@ -10867,10 +10849,10 @@
         <v>755</v>
       </c>
       <c r="I230" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J230" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K230" t="s">
         <v>753</v>
@@ -10905,7 +10887,7 @@
         <v>680</v>
       </c>
       <c r="J231" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K231" t="s">
         <v>753</v>
@@ -10940,7 +10922,7 @@
         <v>680</v>
       </c>
       <c r="J232" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K232" t="s">
         <v>753</v>
@@ -10975,7 +10957,7 @@
         <v>680</v>
       </c>
       <c r="J233" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K233" t="s">
         <v>753</v>
@@ -11010,7 +10992,7 @@
         <v>680</v>
       </c>
       <c r="J234" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K234" t="s">
         <v>753</v>
@@ -11045,7 +11027,7 @@
         <v>680</v>
       </c>
       <c r="J235" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K235" t="s">
         <v>753</v>
@@ -11080,7 +11062,7 @@
         <v>680</v>
       </c>
       <c r="J236" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K236" t="s">
         <v>753</v>
@@ -11115,7 +11097,7 @@
         <v>680</v>
       </c>
       <c r="J237" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K237" t="s">
         <v>753</v>
@@ -11150,7 +11132,7 @@
         <v>680</v>
       </c>
       <c r="J238" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K238" t="s">
         <v>753</v>
@@ -11182,10 +11164,10 @@
         <v>750</v>
       </c>
       <c r="I239" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J239" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K239" t="s">
         <v>753</v>
@@ -11220,7 +11202,7 @@
         <v>680</v>
       </c>
       <c r="J240" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K240" t="s">
         <v>753</v>
@@ -12127,10 +12109,10 @@
         <v>755</v>
       </c>
       <c r="I266" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J266" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K266">
         <v>10</v>
@@ -12162,7 +12144,7 @@
         <v>755</v>
       </c>
       <c r="I267" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="J267" t="s">
         <v>757</v>
@@ -12197,7 +12179,7 @@
         <v>755</v>
       </c>
       <c r="I268" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J268" t="s">
         <v>757</v>
@@ -12232,7 +12214,7 @@
         <v>755</v>
       </c>
       <c r="I269" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J269" t="s">
         <v>757</v>
@@ -12267,7 +12249,7 @@
         <v>755</v>
       </c>
       <c r="I270" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J270" t="s">
         <v>757</v>
@@ -12372,10 +12354,10 @@
         <v>755</v>
       </c>
       <c r="I273" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J273" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K273" t="s">
         <v>753</v>
@@ -12512,7 +12494,7 @@
         <v>755</v>
       </c>
       <c r="I277" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="J277" t="s">
         <v>757</v>
@@ -12582,7 +12564,7 @@
         <v>755</v>
       </c>
       <c r="I279" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J279" t="s">
         <v>757</v>
@@ -12760,7 +12742,7 @@
         <v>694</v>
       </c>
       <c r="J284" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K284" t="s">
         <v>753</v>
@@ -12830,7 +12812,7 @@
         <v>694</v>
       </c>
       <c r="J286" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K286" t="s">
         <v>753</v>
@@ -12967,7 +12949,7 @@
         <v>755</v>
       </c>
       <c r="I290" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J290" t="s">
         <v>757</v>
@@ -13028,7 +13010,7 @@
         <v>9</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G292" t="s">
         <v>754</v>
@@ -13212,7 +13194,7 @@
         <v>755</v>
       </c>
       <c r="I297" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="J297" t="s">
         <v>757</v>
@@ -13282,10 +13264,10 @@
         <v>755</v>
       </c>
       <c r="I299" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J299" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K299" t="s">
         <v>753</v>
@@ -13317,7 +13299,7 @@
         <v>755</v>
       </c>
       <c r="I300" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="J300" t="s">
         <v>757</v>
@@ -13352,7 +13334,7 @@
         <v>755</v>
       </c>
       <c r="I301" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J301" t="s">
         <v>762</v>
@@ -14087,7 +14069,7 @@
         <v>755</v>
       </c>
       <c r="I322" s="6" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="J322" s="6" t="s">
         <v>731</v>
@@ -14227,7 +14209,7 @@
         <v>755</v>
       </c>
       <c r="I326" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J326" t="s">
         <v>762</v>
@@ -14542,7 +14524,7 @@
         <v>755</v>
       </c>
       <c r="I335" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J335" t="s">
         <v>762</v>
@@ -14577,10 +14559,10 @@
         <v>755</v>
       </c>
       <c r="I336" t="s">
+        <v>769</v>
+      </c>
+      <c r="J336" t="s">
         <v>770</v>
-      </c>
-      <c r="J336" t="s">
-        <v>771</v>
       </c>
       <c r="K336" t="s">
         <v>753</v>
@@ -14615,7 +14597,7 @@
         <v>680</v>
       </c>
       <c r="J337" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K337" t="s">
         <v>753</v>
@@ -14650,7 +14632,7 @@
         <v>680</v>
       </c>
       <c r="J338" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K338" t="s">
         <v>753</v>
@@ -14685,7 +14667,7 @@
         <v>680</v>
       </c>
       <c r="J339" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K339" t="s">
         <v>753</v>
@@ -14720,7 +14702,7 @@
         <v>680</v>
       </c>
       <c r="J340" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K340" t="s">
         <v>753</v>
@@ -14755,7 +14737,7 @@
         <v>680</v>
       </c>
       <c r="J341" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K341" t="s">
         <v>753</v>
@@ -14790,7 +14772,7 @@
         <v>680</v>
       </c>
       <c r="J342" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K342" t="s">
         <v>753</v>
@@ -14825,7 +14807,7 @@
         <v>680</v>
       </c>
       <c r="J343" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K343" t="s">
         <v>753</v>
@@ -14860,7 +14842,7 @@
         <v>680</v>
       </c>
       <c r="J344" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K344" t="s">
         <v>753</v>
@@ -14895,7 +14877,7 @@
         <v>680</v>
       </c>
       <c r="J345" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K345" t="s">
         <v>753</v>
@@ -14930,7 +14912,7 @@
         <v>680</v>
       </c>
       <c r="J346" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K346" t="s">
         <v>753</v>
@@ -14965,7 +14947,7 @@
         <v>680</v>
       </c>
       <c r="J347" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K347" t="s">
         <v>753</v>
@@ -15000,7 +14982,7 @@
         <v>680</v>
       </c>
       <c r="J348" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K348" t="s">
         <v>753</v>
@@ -15035,7 +15017,7 @@
         <v>680</v>
       </c>
       <c r="J349" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K349" t="s">
         <v>753</v>
@@ -15070,7 +15052,7 @@
         <v>680</v>
       </c>
       <c r="J350" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K350" t="s">
         <v>753</v>
@@ -15105,7 +15087,7 @@
         <v>680</v>
       </c>
       <c r="J351" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K351" t="s">
         <v>753</v>
@@ -15140,7 +15122,7 @@
         <v>680</v>
       </c>
       <c r="J352" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K352" t="s">
         <v>753</v>
@@ -15175,7 +15157,7 @@
         <v>680</v>
       </c>
       <c r="J353" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K353" t="s">
         <v>753</v>
@@ -15210,7 +15192,7 @@
         <v>680</v>
       </c>
       <c r="J354" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K354" t="s">
         <v>753</v>
@@ -15245,7 +15227,7 @@
         <v>680</v>
       </c>
       <c r="J355" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K355" t="s">
         <v>753</v>
@@ -15280,7 +15262,7 @@
         <v>680</v>
       </c>
       <c r="J356" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K356" t="s">
         <v>753</v>
@@ -15315,7 +15297,7 @@
         <v>680</v>
       </c>
       <c r="J357" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K357" t="s">
         <v>753</v>
@@ -15350,7 +15332,7 @@
         <v>680</v>
       </c>
       <c r="J358" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K358" t="s">
         <v>753</v>
@@ -15385,7 +15367,7 @@
         <v>680</v>
       </c>
       <c r="J359" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K359" t="s">
         <v>753</v>
@@ -15420,7 +15402,7 @@
         <v>680</v>
       </c>
       <c r="J360" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K360" t="s">
         <v>753</v>
@@ -15455,7 +15437,7 @@
         <v>680</v>
       </c>
       <c r="J361" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K361" t="s">
         <v>753</v>
@@ -15490,7 +15472,7 @@
         <v>680</v>
       </c>
       <c r="J362" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K362" t="s">
         <v>753</v>
@@ -15525,7 +15507,7 @@
         <v>680</v>
       </c>
       <c r="J363" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K363" t="s">
         <v>753</v>
@@ -15560,7 +15542,7 @@
         <v>680</v>
       </c>
       <c r="J364" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K364" t="s">
         <v>753</v>
@@ -15595,7 +15577,7 @@
         <v>680</v>
       </c>
       <c r="J365" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K365" t="s">
         <v>753</v>
@@ -15630,7 +15612,7 @@
         <v>680</v>
       </c>
       <c r="J366" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K366" t="s">
         <v>753</v>
@@ -15665,7 +15647,7 @@
         <v>680</v>
       </c>
       <c r="J367" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K367" t="s">
         <v>753</v>
@@ -15700,7 +15682,7 @@
         <v>680</v>
       </c>
       <c r="J368" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K368" t="s">
         <v>753</v>
@@ -15735,7 +15717,7 @@
         <v>680</v>
       </c>
       <c r="J369" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K369" t="s">
         <v>753</v>
@@ -15770,7 +15752,7 @@
         <v>680</v>
       </c>
       <c r="J370" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K370" t="s">
         <v>753</v>
@@ -15805,7 +15787,7 @@
         <v>680</v>
       </c>
       <c r="J371" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K371" t="s">
         <v>753</v>
@@ -15840,7 +15822,7 @@
         <v>680</v>
       </c>
       <c r="J372" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K372" t="s">
         <v>753</v>
@@ -15875,7 +15857,7 @@
         <v>680</v>
       </c>
       <c r="J373" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K373" t="s">
         <v>753</v>
@@ -15910,7 +15892,7 @@
         <v>680</v>
       </c>
       <c r="J374" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K374" t="s">
         <v>753</v>
@@ -15945,7 +15927,7 @@
         <v>680</v>
       </c>
       <c r="J375" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K375" t="s">
         <v>753</v>
@@ -15980,7 +15962,7 @@
         <v>680</v>
       </c>
       <c r="J376" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K376" t="s">
         <v>753</v>
@@ -16015,7 +15997,7 @@
         <v>680</v>
       </c>
       <c r="J377" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K377" t="s">
         <v>753</v>
@@ -16050,7 +16032,7 @@
         <v>680</v>
       </c>
       <c r="J378" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K378" t="s">
         <v>753</v>
@@ -16085,7 +16067,7 @@
         <v>680</v>
       </c>
       <c r="J379" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K379" t="s">
         <v>753</v>
@@ -16120,7 +16102,7 @@
         <v>680</v>
       </c>
       <c r="J380" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K380" t="s">
         <v>753</v>
@@ -16155,7 +16137,7 @@
         <v>680</v>
       </c>
       <c r="J381" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K381" t="s">
         <v>753</v>
@@ -16190,7 +16172,7 @@
         <v>680</v>
       </c>
       <c r="J382" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K382" t="s">
         <v>753</v>
@@ -16225,7 +16207,7 @@
         <v>680</v>
       </c>
       <c r="J383" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K383" t="s">
         <v>753</v>
@@ -16260,7 +16242,7 @@
         <v>680</v>
       </c>
       <c r="J384" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K384" t="s">
         <v>753</v>
@@ -16295,7 +16277,7 @@
         <v>680</v>
       </c>
       <c r="J385" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K385" t="s">
         <v>753</v>
@@ -16330,7 +16312,7 @@
         <v>680</v>
       </c>
       <c r="J386" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K386" t="s">
         <v>753</v>
@@ -16365,7 +16347,7 @@
         <v>680</v>
       </c>
       <c r="J387" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K387" t="s">
         <v>753</v>
@@ -16400,7 +16382,7 @@
         <v>680</v>
       </c>
       <c r="J388" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K388" t="s">
         <v>753</v>
@@ -16435,7 +16417,7 @@
         <v>680</v>
       </c>
       <c r="J389" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K389" t="s">
         <v>753</v>
@@ -16470,7 +16452,7 @@
         <v>680</v>
       </c>
       <c r="J390" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K390" t="s">
         <v>753</v>
@@ -16505,7 +16487,7 @@
         <v>680</v>
       </c>
       <c r="J391" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K391" t="s">
         <v>753</v>
@@ -16540,7 +16522,7 @@
         <v>680</v>
       </c>
       <c r="J392" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K392" t="s">
         <v>753</v>
@@ -16575,7 +16557,7 @@
         <v>680</v>
       </c>
       <c r="J393" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K393" t="s">
         <v>753</v>
@@ -16610,7 +16592,7 @@
         <v>680</v>
       </c>
       <c r="J394" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K394" t="s">
         <v>753</v>
@@ -16645,7 +16627,7 @@
         <v>680</v>
       </c>
       <c r="J395" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K395" t="s">
         <v>753</v>
@@ -16680,7 +16662,7 @@
         <v>680</v>
       </c>
       <c r="J396" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K396" t="s">
         <v>753</v>
@@ -16715,7 +16697,7 @@
         <v>680</v>
       </c>
       <c r="J397" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K397" t="s">
         <v>753</v>
@@ -16750,7 +16732,7 @@
         <v>680</v>
       </c>
       <c r="J398" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K398" t="s">
         <v>753</v>
@@ -16785,7 +16767,7 @@
         <v>680</v>
       </c>
       <c r="J399" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K399" t="s">
         <v>753</v>
@@ -16820,7 +16802,7 @@
         <v>680</v>
       </c>
       <c r="J400" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K400" t="s">
         <v>753</v>
@@ -16855,7 +16837,7 @@
         <v>680</v>
       </c>
       <c r="J401" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K401" t="s">
         <v>753</v>
@@ -16890,7 +16872,7 @@
         <v>680</v>
       </c>
       <c r="J402" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K402" t="s">
         <v>753</v>
@@ -16925,7 +16907,7 @@
         <v>680</v>
       </c>
       <c r="J403" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K403" t="s">
         <v>753</v>
@@ -16960,7 +16942,7 @@
         <v>680</v>
       </c>
       <c r="J404" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K404" t="s">
         <v>753</v>
@@ -16995,7 +16977,7 @@
         <v>680</v>
       </c>
       <c r="J405" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K405" t="s">
         <v>753</v>
@@ -17030,7 +17012,7 @@
         <v>680</v>
       </c>
       <c r="J406" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K406" t="s">
         <v>753</v>
@@ -17065,7 +17047,7 @@
         <v>680</v>
       </c>
       <c r="J407" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K407" t="s">
         <v>753</v>
@@ -17100,7 +17082,7 @@
         <v>680</v>
       </c>
       <c r="J408" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K408" t="s">
         <v>753</v>
@@ -17135,7 +17117,7 @@
         <v>680</v>
       </c>
       <c r="J409" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K409" t="s">
         <v>753</v>
@@ -17170,7 +17152,7 @@
         <v>680</v>
       </c>
       <c r="J410" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K410" t="s">
         <v>753</v>
@@ -17202,7 +17184,7 @@
         <v>755</v>
       </c>
       <c r="I411" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J411" t="s">
         <v>731</v>
@@ -17272,7 +17254,7 @@
         <v>755</v>
       </c>
       <c r="I413" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J413" t="s">
         <v>731</v>
@@ -17517,10 +17499,10 @@
         <v>750</v>
       </c>
       <c r="I420" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J420" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K420" t="s">
         <v>753</v>
@@ -17552,10 +17534,10 @@
         <v>750</v>
       </c>
       <c r="I421" t="s">
-        <v>678</v>
+        <v>777</v>
       </c>
       <c r="J421" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K421" t="s">
         <v>753</v>
@@ -17902,7 +17884,7 @@
         <v>755</v>
       </c>
       <c r="I431" t="s">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="J431" t="s">
         <v>757</v>
@@ -18252,7 +18234,7 @@
         <v>755</v>
       </c>
       <c r="I441" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="J441" t="s">
         <v>757</v>
@@ -18287,7 +18269,7 @@
         <v>755</v>
       </c>
       <c r="I442" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="J442" t="s">
         <v>757</v>
@@ -18322,7 +18304,7 @@
         <v>755</v>
       </c>
       <c r="I443" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J443" t="s">
         <v>762</v>
@@ -18357,10 +18339,10 @@
         <v>755</v>
       </c>
       <c r="I444" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="J444" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K444" t="s">
         <v>753</v>
@@ -18392,7 +18374,7 @@
         <v>755</v>
       </c>
       <c r="I445" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J445" t="s">
         <v>762</v>
@@ -18427,7 +18409,7 @@
         <v>755</v>
       </c>
       <c r="I446" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J446" t="s">
         <v>762</v>
@@ -18558,7 +18540,7 @@
         <v>9</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G450" t="s">
         <v>754</v>
@@ -18567,7 +18549,7 @@
         <v>755</v>
       </c>
       <c r="I450" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="J450" t="s">
         <v>762</v>
@@ -18593,7 +18575,7 @@
         <v>9</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G451" t="s">
         <v>754</v>
@@ -18602,7 +18584,7 @@
         <v>755</v>
       </c>
       <c r="I451" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="J451" t="s">
         <v>762</v>
@@ -18637,10 +18619,10 @@
         <v>750</v>
       </c>
       <c r="I452" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J452" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K452" t="s">
         <v>753</v>
@@ -18917,7 +18899,7 @@
         <v>755</v>
       </c>
       <c r="I460" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J460" t="s">
         <v>757</v>

--- a/data/misused_bar_graph_figures/nature/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nature/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nature/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8AC9F-FC28-4A46-84E4-909DD97ABBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77179188-C01F-7D4E-B882-CCCBC329B821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5045" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5045" uniqueCount="783">
   <si>
     <t>Fig Index</t>
   </si>
@@ -2331,9 +2331,6 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t>Colony count</t>
   </si>
   <si>
     <t>Length</t>
@@ -2796,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="241" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="F434" zoomScale="241" workbookViewId="0">
+      <selection activeCell="I440" sqref="I440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4409,10 +4406,10 @@
         <v>755</v>
       </c>
       <c r="I46" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J46" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K46" t="s">
         <v>753</v>
@@ -4444,10 +4441,10 @@
         <v>755</v>
       </c>
       <c r="I47" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J47" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K47" t="s">
         <v>753</v>
@@ -4479,10 +4476,10 @@
         <v>755</v>
       </c>
       <c r="I48" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J48" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K48" t="s">
         <v>753</v>
@@ -4514,10 +4511,10 @@
         <v>755</v>
       </c>
       <c r="I49" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J49" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K49" t="s">
         <v>753</v>
@@ -4549,10 +4546,10 @@
         <v>755</v>
       </c>
       <c r="I50" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J50" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K50" t="s">
         <v>753</v>
@@ -4584,10 +4581,10 @@
         <v>755</v>
       </c>
       <c r="I51" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J51" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K51" t="s">
         <v>753</v>
@@ -4619,10 +4616,10 @@
         <v>755</v>
       </c>
       <c r="I52" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J52" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K52" t="s">
         <v>753</v>
@@ -4654,10 +4651,10 @@
         <v>755</v>
       </c>
       <c r="I53" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J53" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K53" t="s">
         <v>753</v>
@@ -4689,10 +4686,10 @@
         <v>755</v>
       </c>
       <c r="I54" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J54" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K54" t="s">
         <v>753</v>
@@ -4724,10 +4721,10 @@
         <v>755</v>
       </c>
       <c r="I55" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J55" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K55" t="s">
         <v>753</v>
@@ -4759,10 +4756,10 @@
         <v>755</v>
       </c>
       <c r="I56" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J56" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K56" t="s">
         <v>753</v>
@@ -4794,10 +4791,10 @@
         <v>755</v>
       </c>
       <c r="I57" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J57" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K57" t="s">
         <v>753</v>
@@ -4829,10 +4826,10 @@
         <v>755</v>
       </c>
       <c r="I58" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J58" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K58" t="s">
         <v>753</v>
@@ -4864,10 +4861,10 @@
         <v>755</v>
       </c>
       <c r="I59" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J59" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K59" t="s">
         <v>753</v>
@@ -4899,10 +4896,10 @@
         <v>755</v>
       </c>
       <c r="I60" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J60" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K60" t="s">
         <v>753</v>
@@ -4934,10 +4931,10 @@
         <v>755</v>
       </c>
       <c r="I61" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J61" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K61" t="s">
         <v>753</v>
@@ -4969,10 +4966,10 @@
         <v>755</v>
       </c>
       <c r="I62" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J62" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K62" t="s">
         <v>753</v>
@@ -5004,10 +5001,10 @@
         <v>755</v>
       </c>
       <c r="I63" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J63" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K63" t="s">
         <v>753</v>
@@ -5039,10 +5036,10 @@
         <v>755</v>
       </c>
       <c r="I64" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J64" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K64" t="s">
         <v>753</v>
@@ -5074,10 +5071,10 @@
         <v>755</v>
       </c>
       <c r="I65" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J65" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K65" t="s">
         <v>753</v>
@@ -5109,10 +5106,10 @@
         <v>755</v>
       </c>
       <c r="I66" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J66" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K66" t="s">
         <v>753</v>
@@ -5144,10 +5141,10 @@
         <v>755</v>
       </c>
       <c r="I67" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J67" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K67" t="s">
         <v>753</v>
@@ -5179,10 +5176,10 @@
         <v>755</v>
       </c>
       <c r="I68" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J68" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K68" t="s">
         <v>753</v>
@@ -5214,10 +5211,10 @@
         <v>755</v>
       </c>
       <c r="I69" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J69" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K69" t="s">
         <v>753</v>
@@ -5249,10 +5246,10 @@
         <v>755</v>
       </c>
       <c r="I70" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J70" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K70" t="s">
         <v>753</v>
@@ -5284,10 +5281,10 @@
         <v>755</v>
       </c>
       <c r="I71" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J71" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K71" t="s">
         <v>753</v>
@@ -5319,10 +5316,10 @@
         <v>755</v>
       </c>
       <c r="I72" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J72" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K72" t="s">
         <v>753</v>
@@ -5354,10 +5351,10 @@
         <v>755</v>
       </c>
       <c r="I73" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J73" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K73" t="s">
         <v>753</v>
@@ -5389,10 +5386,10 @@
         <v>755</v>
       </c>
       <c r="I74" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J74" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K74" t="s">
         <v>753</v>
@@ -5424,10 +5421,10 @@
         <v>755</v>
       </c>
       <c r="I75" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J75" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K75" t="s">
         <v>753</v>
@@ -5459,10 +5456,10 @@
         <v>755</v>
       </c>
       <c r="I76" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J76" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K76" t="s">
         <v>753</v>
@@ -5494,10 +5491,10 @@
         <v>755</v>
       </c>
       <c r="I77" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J77" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K77" t="s">
         <v>753</v>
@@ -5529,10 +5526,10 @@
         <v>755</v>
       </c>
       <c r="I78" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J78" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K78" t="s">
         <v>753</v>
@@ -5564,10 +5561,10 @@
         <v>755</v>
       </c>
       <c r="I79" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J79" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K79" t="s">
         <v>753</v>
@@ -5599,10 +5596,10 @@
         <v>755</v>
       </c>
       <c r="I80" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J80" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K80" t="s">
         <v>753</v>
@@ -5634,10 +5631,10 @@
         <v>755</v>
       </c>
       <c r="I81" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J81" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K81" t="s">
         <v>753</v>
@@ -5669,10 +5666,10 @@
         <v>755</v>
       </c>
       <c r="I82" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J82" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K82" t="s">
         <v>753</v>
@@ -5704,10 +5701,10 @@
         <v>755</v>
       </c>
       <c r="I83" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J83" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K83" t="s">
         <v>753</v>
@@ -5739,10 +5736,10 @@
         <v>755</v>
       </c>
       <c r="I84" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J84" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K84" t="s">
         <v>753</v>
@@ -5774,10 +5771,10 @@
         <v>755</v>
       </c>
       <c r="I85" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J85" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K85" t="s">
         <v>753</v>
@@ -5809,10 +5806,10 @@
         <v>755</v>
       </c>
       <c r="I86" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J86" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K86" t="s">
         <v>753</v>
@@ -5844,10 +5841,10 @@
         <v>755</v>
       </c>
       <c r="I87" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J87" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K87" t="s">
         <v>753</v>
@@ -5879,10 +5876,10 @@
         <v>755</v>
       </c>
       <c r="I88" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J88" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K88" t="s">
         <v>753</v>
@@ -5914,10 +5911,10 @@
         <v>755</v>
       </c>
       <c r="I89" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J89" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K89" t="s">
         <v>753</v>
@@ -5949,10 +5946,10 @@
         <v>755</v>
       </c>
       <c r="I90" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J90" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K90" t="s">
         <v>753</v>
@@ -5984,10 +5981,10 @@
         <v>755</v>
       </c>
       <c r="I91" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J91" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K91" t="s">
         <v>753</v>
@@ -6019,10 +6016,10 @@
         <v>755</v>
       </c>
       <c r="I92" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J92" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K92" t="s">
         <v>753</v>
@@ -6054,10 +6051,10 @@
         <v>755</v>
       </c>
       <c r="I93" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J93" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K93" t="s">
         <v>753</v>
@@ -6089,10 +6086,10 @@
         <v>755</v>
       </c>
       <c r="I94" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J94" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K94" t="s">
         <v>753</v>
@@ -6124,10 +6121,10 @@
         <v>755</v>
       </c>
       <c r="I95" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J95" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K95" t="s">
         <v>753</v>
@@ -6159,10 +6156,10 @@
         <v>755</v>
       </c>
       <c r="I96" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J96" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K96" t="s">
         <v>753</v>
@@ -6194,10 +6191,10 @@
         <v>755</v>
       </c>
       <c r="I97" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J97" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K97" t="s">
         <v>753</v>
@@ -6229,10 +6226,10 @@
         <v>755</v>
       </c>
       <c r="I98" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J98" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K98" t="s">
         <v>753</v>
@@ -6264,10 +6261,10 @@
         <v>755</v>
       </c>
       <c r="I99" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J99" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K99" t="s">
         <v>753</v>
@@ -6299,10 +6296,10 @@
         <v>755</v>
       </c>
       <c r="I100" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J100" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K100" t="s">
         <v>753</v>
@@ -6334,10 +6331,10 @@
         <v>755</v>
       </c>
       <c r="I101" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J101" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K101" t="s">
         <v>753</v>
@@ -6369,10 +6366,10 @@
         <v>755</v>
       </c>
       <c r="I102" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J102" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K102" t="s">
         <v>753</v>
@@ -6404,10 +6401,10 @@
         <v>755</v>
       </c>
       <c r="I103" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J103" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K103" t="s">
         <v>753</v>
@@ -6439,10 +6436,10 @@
         <v>755</v>
       </c>
       <c r="I104" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J104" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K104" t="s">
         <v>753</v>
@@ -6474,10 +6471,10 @@
         <v>755</v>
       </c>
       <c r="I105" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J105" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K105" t="s">
         <v>753</v>
@@ -6509,10 +6506,10 @@
         <v>755</v>
       </c>
       <c r="I106" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J106" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K106" t="s">
         <v>753</v>
@@ -6579,10 +6576,10 @@
         <v>755</v>
       </c>
       <c r="I108" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J108" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K108" t="s">
         <v>753</v>
@@ -6649,10 +6646,10 @@
         <v>755</v>
       </c>
       <c r="I110" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J110" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K110" t="s">
         <v>753</v>
@@ -6719,10 +6716,10 @@
         <v>755</v>
       </c>
       <c r="I112" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J112" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K112" t="s">
         <v>753</v>
@@ -6754,10 +6751,10 @@
         <v>755</v>
       </c>
       <c r="I113" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J113" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K113" t="s">
         <v>753</v>
@@ -6789,10 +6786,10 @@
         <v>755</v>
       </c>
       <c r="I114" t="s">
+        <v>768</v>
+      </c>
+      <c r="J114" t="s">
         <v>769</v>
-      </c>
-      <c r="J114" t="s">
-        <v>770</v>
       </c>
       <c r="K114" t="s">
         <v>753</v>
@@ -6824,7 +6821,7 @@
         <v>750</v>
       </c>
       <c r="I115" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J115" t="s">
         <v>765</v>
@@ -6859,7 +6856,7 @@
         <v>750</v>
       </c>
       <c r="I116" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J116" t="s">
         <v>765</v>
@@ -6894,7 +6891,7 @@
         <v>750</v>
       </c>
       <c r="I117" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J117" t="s">
         <v>765</v>
@@ -6929,7 +6926,7 @@
         <v>750</v>
       </c>
       <c r="I118" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J118" t="s">
         <v>765</v>
@@ -6964,10 +6961,10 @@
         <v>755</v>
       </c>
       <c r="I119" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J119" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K119" t="s">
         <v>753</v>
@@ -6999,10 +6996,10 @@
         <v>755</v>
       </c>
       <c r="I120" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J120" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K120" t="s">
         <v>753</v>
@@ -7034,10 +7031,10 @@
         <v>755</v>
       </c>
       <c r="I121" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J121" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K121" t="s">
         <v>753</v>
@@ -7069,10 +7066,10 @@
         <v>755</v>
       </c>
       <c r="I122" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J122" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K122" t="s">
         <v>753</v>
@@ -8119,7 +8116,7 @@
         <v>755</v>
       </c>
       <c r="I152" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J152" t="s">
         <v>731</v>
@@ -8154,7 +8151,7 @@
         <v>755</v>
       </c>
       <c r="I153" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J153" t="s">
         <v>731</v>
@@ -8189,7 +8186,7 @@
         <v>755</v>
       </c>
       <c r="I154" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J154" t="s">
         <v>731</v>
@@ -8224,10 +8221,10 @@
         <v>755</v>
       </c>
       <c r="I155" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J155" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K155">
         <v>10</v>
@@ -8259,7 +8256,7 @@
         <v>755</v>
       </c>
       <c r="I156" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J156" t="s">
         <v>757</v>
@@ -8294,7 +8291,7 @@
         <v>755</v>
       </c>
       <c r="I157" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J157" t="s">
         <v>757</v>
@@ -8329,7 +8326,7 @@
         <v>755</v>
       </c>
       <c r="I158" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J158" t="s">
         <v>757</v>
@@ -8364,7 +8361,7 @@
         <v>755</v>
       </c>
       <c r="I159" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J159" t="s">
         <v>757</v>
@@ -8434,7 +8431,7 @@
         <v>755</v>
       </c>
       <c r="I161" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J161" t="s">
         <v>757</v>
@@ -8469,7 +8466,7 @@
         <v>755</v>
       </c>
       <c r="I162" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J162" t="s">
         <v>757</v>
@@ -8504,7 +8501,7 @@
         <v>755</v>
       </c>
       <c r="I163" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J163" t="s">
         <v>762</v>
@@ -8539,7 +8536,7 @@
         <v>755</v>
       </c>
       <c r="I164" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J164" t="s">
         <v>757</v>
@@ -8574,7 +8571,7 @@
         <v>755</v>
       </c>
       <c r="I165" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J165" t="s">
         <v>757</v>
@@ -8784,7 +8781,7 @@
         <v>755</v>
       </c>
       <c r="I171" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J171" t="s">
         <v>731</v>
@@ -8819,7 +8816,7 @@
         <v>755</v>
       </c>
       <c r="I172" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J172" t="s">
         <v>731</v>
@@ -8854,7 +8851,7 @@
         <v>755</v>
       </c>
       <c r="I173" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J173" t="s">
         <v>731</v>
@@ -8889,7 +8886,7 @@
         <v>755</v>
       </c>
       <c r="I174" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J174" t="s">
         <v>731</v>
@@ -8924,7 +8921,7 @@
         <v>755</v>
       </c>
       <c r="I175" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J175" t="s">
         <v>731</v>
@@ -8994,7 +8991,7 @@
         <v>755</v>
       </c>
       <c r="I177" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J177" t="s">
         <v>757</v>
@@ -9204,7 +9201,7 @@
         <v>755</v>
       </c>
       <c r="I183" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J183" t="s">
         <v>757</v>
@@ -9729,7 +9726,7 @@
         <v>755</v>
       </c>
       <c r="I198" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J198" t="s">
         <v>757</v>
@@ -9799,10 +9796,10 @@
         <v>755</v>
       </c>
       <c r="I200" t="s">
+        <v>768</v>
+      </c>
+      <c r="J200" t="s">
         <v>769</v>
-      </c>
-      <c r="J200" t="s">
-        <v>770</v>
       </c>
       <c r="K200">
         <v>10</v>
@@ -9834,10 +9831,10 @@
         <v>755</v>
       </c>
       <c r="I201" t="s">
+        <v>768</v>
+      </c>
+      <c r="J201" t="s">
         <v>769</v>
-      </c>
-      <c r="J201" t="s">
-        <v>770</v>
       </c>
       <c r="K201">
         <v>10</v>
@@ -9904,10 +9901,10 @@
         <v>755</v>
       </c>
       <c r="I203" t="s">
+        <v>768</v>
+      </c>
+      <c r="J203" t="s">
         <v>769</v>
-      </c>
-      <c r="J203" t="s">
-        <v>770</v>
       </c>
       <c r="K203">
         <v>10</v>
@@ -9939,10 +9936,10 @@
         <v>755</v>
       </c>
       <c r="I204" t="s">
+        <v>768</v>
+      </c>
+      <c r="J204" t="s">
         <v>769</v>
-      </c>
-      <c r="J204" t="s">
-        <v>770</v>
       </c>
       <c r="K204">
         <v>10</v>
@@ -9974,10 +9971,10 @@
         <v>755</v>
       </c>
       <c r="I205" t="s">
+        <v>768</v>
+      </c>
+      <c r="J205" t="s">
         <v>769</v>
-      </c>
-      <c r="J205" t="s">
-        <v>770</v>
       </c>
       <c r="K205">
         <v>10</v>
@@ -10009,10 +10006,10 @@
         <v>755</v>
       </c>
       <c r="I206" t="s">
+        <v>768</v>
+      </c>
+      <c r="J206" t="s">
         <v>769</v>
-      </c>
-      <c r="J206" t="s">
-        <v>770</v>
       </c>
       <c r="K206">
         <v>10</v>
@@ -10044,10 +10041,10 @@
         <v>755</v>
       </c>
       <c r="I207" t="s">
+        <v>768</v>
+      </c>
+      <c r="J207" t="s">
         <v>769</v>
-      </c>
-      <c r="J207" t="s">
-        <v>770</v>
       </c>
       <c r="K207">
         <v>10</v>
@@ -10254,7 +10251,7 @@
         <v>755</v>
       </c>
       <c r="I213" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J213" t="s">
         <v>757</v>
@@ -10324,7 +10321,7 @@
         <v>750</v>
       </c>
       <c r="I215" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J215" t="s">
         <v>765</v>
@@ -10464,7 +10461,7 @@
         <v>755</v>
       </c>
       <c r="I219" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J219" t="s">
         <v>760</v>
@@ -10604,10 +10601,10 @@
         <v>750</v>
       </c>
       <c r="I223" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J223" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K223" t="s">
         <v>753</v>
@@ -10639,10 +10636,10 @@
         <v>750</v>
       </c>
       <c r="I224" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J224" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K224" t="s">
         <v>753</v>
@@ -10674,10 +10671,10 @@
         <v>750</v>
       </c>
       <c r="I225" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J225" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K225" t="s">
         <v>753</v>
@@ -10709,10 +10706,10 @@
         <v>750</v>
       </c>
       <c r="I226" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J226" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K226" t="s">
         <v>753</v>
@@ -10744,10 +10741,10 @@
         <v>750</v>
       </c>
       <c r="I227" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J227" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K227" t="s">
         <v>753</v>
@@ -10779,10 +10776,10 @@
         <v>750</v>
       </c>
       <c r="I228" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J228" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K228" t="s">
         <v>753</v>
@@ -10814,10 +10811,10 @@
         <v>750</v>
       </c>
       <c r="I229" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J229" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K229" t="s">
         <v>753</v>
@@ -10887,7 +10884,7 @@
         <v>680</v>
       </c>
       <c r="J231" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K231" t="s">
         <v>753</v>
@@ -10922,7 +10919,7 @@
         <v>680</v>
       </c>
       <c r="J232" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K232" t="s">
         <v>753</v>
@@ -10957,7 +10954,7 @@
         <v>680</v>
       </c>
       <c r="J233" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K233" t="s">
         <v>753</v>
@@ -10992,7 +10989,7 @@
         <v>680</v>
       </c>
       <c r="J234" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K234" t="s">
         <v>753</v>
@@ -11027,7 +11024,7 @@
         <v>680</v>
       </c>
       <c r="J235" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K235" t="s">
         <v>753</v>
@@ -11062,7 +11059,7 @@
         <v>680</v>
       </c>
       <c r="J236" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K236" t="s">
         <v>753</v>
@@ -11097,7 +11094,7 @@
         <v>680</v>
       </c>
       <c r="J237" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K237" t="s">
         <v>753</v>
@@ -11132,7 +11129,7 @@
         <v>680</v>
       </c>
       <c r="J238" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K238" t="s">
         <v>753</v>
@@ -11164,10 +11161,10 @@
         <v>750</v>
       </c>
       <c r="I239" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J239" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K239" t="s">
         <v>753</v>
@@ -11202,7 +11199,7 @@
         <v>680</v>
       </c>
       <c r="J240" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K240" t="s">
         <v>753</v>
@@ -12109,10 +12106,10 @@
         <v>755</v>
       </c>
       <c r="I266" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J266" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K266">
         <v>10</v>
@@ -12179,7 +12176,7 @@
         <v>755</v>
       </c>
       <c r="I268" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J268" t="s">
         <v>757</v>
@@ -12214,7 +12211,7 @@
         <v>755</v>
       </c>
       <c r="I269" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J269" t="s">
         <v>757</v>
@@ -12249,7 +12246,7 @@
         <v>755</v>
       </c>
       <c r="I270" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J270" t="s">
         <v>757</v>
@@ -12354,10 +12351,10 @@
         <v>755</v>
       </c>
       <c r="I273" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J273" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K273" t="s">
         <v>753</v>
@@ -12564,7 +12561,7 @@
         <v>755</v>
       </c>
       <c r="I279" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J279" t="s">
         <v>757</v>
@@ -12742,7 +12739,7 @@
         <v>694</v>
       </c>
       <c r="J284" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K284" t="s">
         <v>753</v>
@@ -12812,7 +12809,7 @@
         <v>694</v>
       </c>
       <c r="J286" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K286" t="s">
         <v>753</v>
@@ -12949,7 +12946,7 @@
         <v>755</v>
       </c>
       <c r="I290" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J290" t="s">
         <v>757</v>
@@ -13010,7 +13007,7 @@
         <v>9</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G292" t="s">
         <v>754</v>
@@ -13334,7 +13331,7 @@
         <v>755</v>
       </c>
       <c r="I301" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J301" t="s">
         <v>762</v>
@@ -14209,10 +14206,10 @@
         <v>755</v>
       </c>
       <c r="I326" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J326" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K326">
         <v>10</v>
@@ -14524,7 +14521,7 @@
         <v>755</v>
       </c>
       <c r="I335" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J335" t="s">
         <v>762</v>
@@ -14559,10 +14556,10 @@
         <v>755</v>
       </c>
       <c r="I336" t="s">
+        <v>768</v>
+      </c>
+      <c r="J336" t="s">
         <v>769</v>
-      </c>
-      <c r="J336" t="s">
-        <v>770</v>
       </c>
       <c r="K336" t="s">
         <v>753</v>
@@ -14597,7 +14594,7 @@
         <v>680</v>
       </c>
       <c r="J337" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K337" t="s">
         <v>753</v>
@@ -14632,7 +14629,7 @@
         <v>680</v>
       </c>
       <c r="J338" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K338" t="s">
         <v>753</v>
@@ -14667,7 +14664,7 @@
         <v>680</v>
       </c>
       <c r="J339" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K339" t="s">
         <v>753</v>
@@ -14702,7 +14699,7 @@
         <v>680</v>
       </c>
       <c r="J340" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K340" t="s">
         <v>753</v>
@@ -14737,7 +14734,7 @@
         <v>680</v>
       </c>
       <c r="J341" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K341" t="s">
         <v>753</v>
@@ -14772,7 +14769,7 @@
         <v>680</v>
       </c>
       <c r="J342" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K342" t="s">
         <v>753</v>
@@ -14807,7 +14804,7 @@
         <v>680</v>
       </c>
       <c r="J343" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K343" t="s">
         <v>753</v>
@@ -14842,7 +14839,7 @@
         <v>680</v>
       </c>
       <c r="J344" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K344" t="s">
         <v>753</v>
@@ -14877,7 +14874,7 @@
         <v>680</v>
       </c>
       <c r="J345" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K345" t="s">
         <v>753</v>
@@ -14912,7 +14909,7 @@
         <v>680</v>
       </c>
       <c r="J346" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K346" t="s">
         <v>753</v>
@@ -14947,7 +14944,7 @@
         <v>680</v>
       </c>
       <c r="J347" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K347" t="s">
         <v>753</v>
@@ -14982,7 +14979,7 @@
         <v>680</v>
       </c>
       <c r="J348" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K348" t="s">
         <v>753</v>
@@ -15017,7 +15014,7 @@
         <v>680</v>
       </c>
       <c r="J349" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K349" t="s">
         <v>753</v>
@@ -15052,7 +15049,7 @@
         <v>680</v>
       </c>
       <c r="J350" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K350" t="s">
         <v>753</v>
@@ -15087,7 +15084,7 @@
         <v>680</v>
       </c>
       <c r="J351" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K351" t="s">
         <v>753</v>
@@ -15122,7 +15119,7 @@
         <v>680</v>
       </c>
       <c r="J352" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K352" t="s">
         <v>753</v>
@@ -15157,7 +15154,7 @@
         <v>680</v>
       </c>
       <c r="J353" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K353" t="s">
         <v>753</v>
@@ -15192,7 +15189,7 @@
         <v>680</v>
       </c>
       <c r="J354" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K354" t="s">
         <v>753</v>
@@ -15227,7 +15224,7 @@
         <v>680</v>
       </c>
       <c r="J355" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K355" t="s">
         <v>753</v>
@@ -15262,7 +15259,7 @@
         <v>680</v>
       </c>
       <c r="J356" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K356" t="s">
         <v>753</v>
@@ -15297,7 +15294,7 @@
         <v>680</v>
       </c>
       <c r="J357" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K357" t="s">
         <v>753</v>
@@ -15332,7 +15329,7 @@
         <v>680</v>
       </c>
       <c r="J358" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K358" t="s">
         <v>753</v>
@@ -15367,7 +15364,7 @@
         <v>680</v>
       </c>
       <c r="J359" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K359" t="s">
         <v>753</v>
@@ -15402,7 +15399,7 @@
         <v>680</v>
       </c>
       <c r="J360" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K360" t="s">
         <v>753</v>
@@ -15437,7 +15434,7 @@
         <v>680</v>
       </c>
       <c r="J361" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K361" t="s">
         <v>753</v>
@@ -15472,7 +15469,7 @@
         <v>680</v>
       </c>
       <c r="J362" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K362" t="s">
         <v>753</v>
@@ -15507,7 +15504,7 @@
         <v>680</v>
       </c>
       <c r="J363" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K363" t="s">
         <v>753</v>
@@ -15542,7 +15539,7 @@
         <v>680</v>
       </c>
       <c r="J364" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K364" t="s">
         <v>753</v>
@@ -15577,7 +15574,7 @@
         <v>680</v>
       </c>
       <c r="J365" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K365" t="s">
         <v>753</v>
@@ -15612,7 +15609,7 @@
         <v>680</v>
       </c>
       <c r="J366" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K366" t="s">
         <v>753</v>
@@ -15647,7 +15644,7 @@
         <v>680</v>
       </c>
       <c r="J367" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K367" t="s">
         <v>753</v>
@@ -15682,7 +15679,7 @@
         <v>680</v>
       </c>
       <c r="J368" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K368" t="s">
         <v>753</v>
@@ -15717,7 +15714,7 @@
         <v>680</v>
       </c>
       <c r="J369" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K369" t="s">
         <v>753</v>
@@ -15752,7 +15749,7 @@
         <v>680</v>
       </c>
       <c r="J370" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K370" t="s">
         <v>753</v>
@@ -15787,7 +15784,7 @@
         <v>680</v>
       </c>
       <c r="J371" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K371" t="s">
         <v>753</v>
@@ -15822,7 +15819,7 @@
         <v>680</v>
       </c>
       <c r="J372" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K372" t="s">
         <v>753</v>
@@ -15857,7 +15854,7 @@
         <v>680</v>
       </c>
       <c r="J373" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K373" t="s">
         <v>753</v>
@@ -15892,7 +15889,7 @@
         <v>680</v>
       </c>
       <c r="J374" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K374" t="s">
         <v>753</v>
@@ -15927,7 +15924,7 @@
         <v>680</v>
       </c>
       <c r="J375" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K375" t="s">
         <v>753</v>
@@ -15962,7 +15959,7 @@
         <v>680</v>
       </c>
       <c r="J376" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K376" t="s">
         <v>753</v>
@@ -15997,7 +15994,7 @@
         <v>680</v>
       </c>
       <c r="J377" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K377" t="s">
         <v>753</v>
@@ -16032,7 +16029,7 @@
         <v>680</v>
       </c>
       <c r="J378" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K378" t="s">
         <v>753</v>
@@ -16067,7 +16064,7 @@
         <v>680</v>
       </c>
       <c r="J379" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K379" t="s">
         <v>753</v>
@@ -16102,7 +16099,7 @@
         <v>680</v>
       </c>
       <c r="J380" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K380" t="s">
         <v>753</v>
@@ -16137,7 +16134,7 @@
         <v>680</v>
       </c>
       <c r="J381" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K381" t="s">
         <v>753</v>
@@ -16172,7 +16169,7 @@
         <v>680</v>
       </c>
       <c r="J382" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K382" t="s">
         <v>753</v>
@@ -16207,7 +16204,7 @@
         <v>680</v>
       </c>
       <c r="J383" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K383" t="s">
         <v>753</v>
@@ -16242,7 +16239,7 @@
         <v>680</v>
       </c>
       <c r="J384" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K384" t="s">
         <v>753</v>
@@ -16277,7 +16274,7 @@
         <v>680</v>
       </c>
       <c r="J385" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K385" t="s">
         <v>753</v>
@@ -16312,7 +16309,7 @@
         <v>680</v>
       </c>
       <c r="J386" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K386" t="s">
         <v>753</v>
@@ -16347,7 +16344,7 @@
         <v>680</v>
       </c>
       <c r="J387" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K387" t="s">
         <v>753</v>
@@ -16382,7 +16379,7 @@
         <v>680</v>
       </c>
       <c r="J388" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K388" t="s">
         <v>753</v>
@@ -16417,7 +16414,7 @@
         <v>680</v>
       </c>
       <c r="J389" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K389" t="s">
         <v>753</v>
@@ -16452,7 +16449,7 @@
         <v>680</v>
       </c>
       <c r="J390" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K390" t="s">
         <v>753</v>
@@ -16487,7 +16484,7 @@
         <v>680</v>
       </c>
       <c r="J391" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K391" t="s">
         <v>753</v>
@@ -16522,7 +16519,7 @@
         <v>680</v>
       </c>
       <c r="J392" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K392" t="s">
         <v>753</v>
@@ -16557,7 +16554,7 @@
         <v>680</v>
       </c>
       <c r="J393" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K393" t="s">
         <v>753</v>
@@ -16592,7 +16589,7 @@
         <v>680</v>
       </c>
       <c r="J394" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K394" t="s">
         <v>753</v>
@@ -16627,7 +16624,7 @@
         <v>680</v>
       </c>
       <c r="J395" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K395" t="s">
         <v>753</v>
@@ -16662,7 +16659,7 @@
         <v>680</v>
       </c>
       <c r="J396" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K396" t="s">
         <v>753</v>
@@ -16697,7 +16694,7 @@
         <v>680</v>
       </c>
       <c r="J397" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K397" t="s">
         <v>753</v>
@@ -16732,7 +16729,7 @@
         <v>680</v>
       </c>
       <c r="J398" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K398" t="s">
         <v>753</v>
@@ -16767,7 +16764,7 @@
         <v>680</v>
       </c>
       <c r="J399" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K399" t="s">
         <v>753</v>
@@ -16802,7 +16799,7 @@
         <v>680</v>
       </c>
       <c r="J400" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K400" t="s">
         <v>753</v>
@@ -16837,7 +16834,7 @@
         <v>680</v>
       </c>
       <c r="J401" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K401" t="s">
         <v>753</v>
@@ -16872,7 +16869,7 @@
         <v>680</v>
       </c>
       <c r="J402" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K402" t="s">
         <v>753</v>
@@ -16907,7 +16904,7 @@
         <v>680</v>
       </c>
       <c r="J403" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K403" t="s">
         <v>753</v>
@@ -16942,7 +16939,7 @@
         <v>680</v>
       </c>
       <c r="J404" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K404" t="s">
         <v>753</v>
@@ -16977,7 +16974,7 @@
         <v>680</v>
       </c>
       <c r="J405" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K405" t="s">
         <v>753</v>
@@ -17012,7 +17009,7 @@
         <v>680</v>
       </c>
       <c r="J406" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K406" t="s">
         <v>753</v>
@@ -17047,7 +17044,7 @@
         <v>680</v>
       </c>
       <c r="J407" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K407" t="s">
         <v>753</v>
@@ -17082,7 +17079,7 @@
         <v>680</v>
       </c>
       <c r="J408" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K408" t="s">
         <v>753</v>
@@ -17117,7 +17114,7 @@
         <v>680</v>
       </c>
       <c r="J409" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K409" t="s">
         <v>753</v>
@@ -17152,7 +17149,7 @@
         <v>680</v>
       </c>
       <c r="J410" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K410" t="s">
         <v>753</v>
@@ -17184,7 +17181,7 @@
         <v>755</v>
       </c>
       <c r="I411" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J411" t="s">
         <v>731</v>
@@ -17254,7 +17251,7 @@
         <v>755</v>
       </c>
       <c r="I413" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J413" t="s">
         <v>731</v>
@@ -17499,10 +17496,10 @@
         <v>750</v>
       </c>
       <c r="I420" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J420" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K420" t="s">
         <v>753</v>
@@ -17534,10 +17531,10 @@
         <v>750</v>
       </c>
       <c r="I421" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J421" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K421" t="s">
         <v>753</v>
@@ -18304,10 +18301,10 @@
         <v>755</v>
       </c>
       <c r="I443" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J443" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K443">
         <v>10</v>
@@ -18339,10 +18336,10 @@
         <v>755</v>
       </c>
       <c r="I444" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J444" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K444" t="s">
         <v>753</v>
@@ -18374,10 +18371,10 @@
         <v>755</v>
       </c>
       <c r="I445" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J445" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K445">
         <v>10</v>
@@ -18409,10 +18406,10 @@
         <v>755</v>
       </c>
       <c r="I446" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J446" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="K446">
         <v>10</v>
@@ -18540,7 +18537,7 @@
         <v>9</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G450" t="s">
         <v>754</v>
@@ -18575,7 +18572,7 @@
         <v>9</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G451" t="s">
         <v>754</v>
@@ -18619,7 +18616,7 @@
         <v>750</v>
       </c>
       <c r="I452" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J452" t="s">
         <v>765</v>
@@ -18899,7 +18896,7 @@
         <v>755</v>
       </c>
       <c r="I460" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J460" t="s">
         <v>757</v>
